--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>2ИСИП-522: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>изм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изм </t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -831,23 +834,26 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M9">
         <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -557,10 +557,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1422,20 +1422,20 @@
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>3</v>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -560,7 +560,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -996,17 +996,17 @@
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M13">
         <v>4</v>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>2ИСИП-522: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">изм </t>
+  </si>
+  <si>
+    <t>Осталось</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -606,14 +609,33 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -551,10 +551,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1474,14 +1474,14 @@
         <v>5</v>
       </c>
       <c r="J25" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25" t="s">
         <v>37</v>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -551,10 +551,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M25">
         <v>5</v>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -551,10 +551,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1562,10 @@
         <v>28</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Сумма</t>
-  </si>
-  <si>
-    <t>аываы</t>
   </si>
 </sst>
 </file>
@@ -548,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -564,12 +561,12 @@
     <col min="3" max="9" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -599,7 +596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -625,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -663,8 +660,15 @@
       <c r="M4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f>O4-M4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -702,8 +706,15 @@
       <c r="M5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -742,8 +753,15 @@
       <c r="M6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -781,8 +799,15 @@
       <c r="M7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -820,8 +845,15 @@
       <c r="M8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -859,8 +891,15 @@
       <c r="M9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -898,8 +937,15 @@
       <c r="M10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -937,8 +983,15 @@
       <c r="M11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -976,8 +1029,15 @@
       <c r="M12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1015,8 +1075,15 @@
       <c r="M13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1054,8 +1121,15 @@
       <c r="M14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1093,8 +1167,15 @@
       <c r="M15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1132,8 +1213,15 @@
       <c r="M16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1171,8 +1259,15 @@
       <c r="M17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1210,8 +1305,15 @@
       <c r="M18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1249,8 +1351,15 @@
       <c r="M19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1288,8 +1397,15 @@
       <c r="M20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1327,8 +1443,15 @@
       <c r="M21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1366,8 +1489,15 @@
       <c r="M22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1405,8 +1535,15 @@
       <c r="M23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1444,8 +1581,15 @@
       <c r="M24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1483,11 +1627,15 @@
       <c r="M25">
         <v>5</v>
       </c>
-      <c r="O25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1525,8 +1673,15 @@
       <c r="M26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1565,10 +1720,14 @@
         <v>4</v>
       </c>
       <c r="O27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1606,8 +1765,15 @@
       <c r="M28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1645,8 +1811,15 @@
       <c r="M29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1684,8 +1857,15 @@
       <c r="M30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1723,8 +1903,15 @@
       <c r="M31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1761,6 +1948,13 @@
       </c>
       <c r="M32">
         <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-522: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>ТК_оригинал</t>
+  </si>
+  <si>
+    <t>на момент выгрузки в элжуре</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,6 +247,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +557,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -595,6 +604,12 @@
       <c r="L2" t="s">
         <v>36</v>
       </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
@@ -660,7 +675,7 @@
       <c r="M4">
         <v>5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <v>4</v>
       </c>
       <c r="P4">
@@ -706,7 +721,7 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="10">
         <v>5</v>
       </c>
       <c r="P5">
@@ -714,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -753,7 +768,7 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="10">
         <v>4</v>
       </c>
       <c r="P6">
@@ -761,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -799,7 +814,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="10">
         <v>3</v>
       </c>
       <c r="P7">
@@ -807,7 +822,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -845,7 +860,7 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="10">
         <v>4</v>
       </c>
       <c r="P8">
@@ -853,7 +868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -891,7 +906,7 @@
       <c r="M9">
         <v>5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="10">
         <v>5</v>
       </c>
       <c r="P9">
@@ -899,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -937,7 +952,7 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="10">
         <v>5</v>
       </c>
       <c r="P10">
@@ -945,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -983,7 +998,7 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="10">
         <v>5</v>
       </c>
       <c r="P11">
@@ -991,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1029,7 +1044,7 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="10">
         <v>5</v>
       </c>
       <c r="P12">
@@ -1037,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1075,7 +1090,7 @@
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="10">
         <v>5</v>
       </c>
       <c r="P13">
@@ -1083,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1121,7 +1136,7 @@
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="10">
         <v>5</v>
       </c>
       <c r="P14">
@@ -1129,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1167,7 +1182,7 @@
       <c r="M15">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="10">
         <v>5</v>
       </c>
       <c r="P15">
@@ -1175,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1213,7 +1228,7 @@
       <c r="M16">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="10">
         <v>5</v>
       </c>
       <c r="P16">
@@ -1221,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1259,7 +1274,7 @@
       <c r="M17">
         <v>3</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="10">
         <v>3</v>
       </c>
       <c r="P17">
@@ -1267,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1305,7 +1320,7 @@
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="10">
         <v>4</v>
       </c>
       <c r="P18">
@@ -1313,7 +1328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1351,7 +1366,7 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="10">
         <v>5</v>
       </c>
       <c r="P19">
@@ -1359,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1397,7 +1412,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="10">
         <v>5</v>
       </c>
       <c r="P20">
@@ -1405,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1443,7 +1458,7 @@
       <c r="M21">
         <v>5</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="10">
         <v>3</v>
       </c>
       <c r="P21">
@@ -1451,7 +1466,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1489,7 +1504,7 @@
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="10">
         <v>5</v>
       </c>
       <c r="P22">
@@ -1497,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1535,7 +1550,7 @@
       <c r="M23">
         <v>5</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="10">
         <v>5</v>
       </c>
       <c r="P23">
@@ -1543,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1581,7 +1596,7 @@
       <c r="M24">
         <v>5</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="10">
         <v>5</v>
       </c>
       <c r="P24">
@@ -1589,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1627,7 +1642,7 @@
       <c r="M25">
         <v>5</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="10">
         <v>5</v>
       </c>
       <c r="P25">
@@ -1635,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1673,7 +1688,7 @@
       <c r="M26">
         <v>4</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="10">
         <v>5</v>
       </c>
       <c r="P26">
@@ -1681,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1719,7 +1734,7 @@
       <c r="M27">
         <v>4</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="10">
         <v>5</v>
       </c>
       <c r="P27">
@@ -1727,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1765,7 +1780,7 @@
       <c r="M28">
         <v>5</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="10">
         <v>3</v>
       </c>
       <c r="P28">
@@ -1773,7 +1788,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1811,7 +1826,7 @@
       <c r="M29">
         <v>4</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="10">
         <v>5</v>
       </c>
       <c r="P29">
@@ -1819,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1857,7 +1872,7 @@
       <c r="M30">
         <v>5</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="10">
         <v>3</v>
       </c>
       <c r="P30">
@@ -1865,7 +1880,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1903,7 +1918,7 @@
       <c r="M31">
         <v>5</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="10">
         <v>4</v>
       </c>
       <c r="P31">
@@ -1911,7 +1926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1949,7 +1964,7 @@
       <c r="M32">
         <v>5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="10">
         <v>5</v>
       </c>
       <c r="P32">
@@ -1957,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,10 +560,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -627,15 +630,10 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -557,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -573,12 +573,12 @@
     <col min="3" max="9" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -614,7 +614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -642,8 +642,20 @@
       <c r="M3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -688,8 +700,24 @@
         <f>O4-M4</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="0">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -721,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
+        <f t="shared" ref="L5:L32" si="1">SUM(C5:J5)</f>
         <v>40</v>
       </c>
       <c r="M5">
@@ -731,11 +759,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P32" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U32" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -778,11 +822,27 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -814,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M7">
@@ -824,43 +884,59 @@
         <v>3</v>
       </c>
       <c r="P7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M8">
@@ -870,11 +946,27 @@
         <v>4</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -906,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M9">
@@ -916,11 +1008,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -952,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M10">
@@ -962,11 +1070,27 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -998,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M11">
@@ -1008,11 +1132,27 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1044,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M12">
@@ -1054,11 +1194,27 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1090,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M13">
@@ -1100,11 +1256,27 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1136,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M14">
@@ -1146,11 +1318,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1182,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M15">
@@ -1192,11 +1380,27 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1228,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M16">
@@ -1238,11 +1442,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1274,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M17">
@@ -1284,11 +1504,27 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1320,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M18">
@@ -1330,11 +1566,27 @@
         <v>4</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1366,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M19">
@@ -1376,11 +1628,27 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1412,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M20">
@@ -1422,11 +1690,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1458,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M21">
@@ -1468,11 +1752,27 @@
         <v>3</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1504,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22">
@@ -1514,11 +1814,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1550,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M23">
@@ -1560,11 +1876,27 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1596,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M24">
@@ -1606,11 +1938,27 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1642,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M25">
@@ -1652,11 +2000,27 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1688,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M26">
@@ -1698,11 +2062,27 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1734,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M27">
@@ -1744,11 +2124,27 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1780,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M28">
@@ -1790,11 +2186,27 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1826,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M29">
@@ -1836,11 +2248,27 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1872,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M30">
@@ -1882,11 +2310,27 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1918,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M31">
@@ -1928,11 +2372,27 @@
         <v>4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1964,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M32">
@@ -1974,8 +2434,24 @@
         <v>5</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
@@ -1991,6 +2467,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J32 K6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2002,7 +2490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L33">
+  <conditionalFormatting sqref="M4:M32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2014,7 +2502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M32">
+  <conditionalFormatting sqref="R4:U32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-522_ТерВер.xlsx
+++ b/2ИСИП-522_ТерВер.xlsx
@@ -557,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4:U32"/>
+      <selection pane="bottomRight" activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2463,6 +2463,38 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f>SUM(R4:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:U36" si="4">SUM(S4:S32)</f>
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
